--- a/程序员客栈项目/因卓科技教育平台/因卓教育阶段一测试用例/前端APP/因卓测试用例.xlsx
+++ b/程序员客栈项目/因卓科技教育平台/因卓教育阶段一测试用例/前端APP/因卓测试用例.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\33_OpenSource\part-time-job\程序员客栈项目\因卓科技教育平台\因卓教育阶段一测试用例\前端APP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10875"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="10872" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="卓学APP" sheetId="3" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="878">
   <si>
     <t>所属模块</t>
   </si>
@@ -1411,6 +1416,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1433,6 +1439,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1475,6 +1482,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4201,12 +4209,56 @@
   <si>
     <t>185</t>
   </si>
+  <si>
+    <t>阶段一没有启动页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有红色数字表示存在未完成的作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评审备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里应该是答题的左右滑动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里是做题的左右滑动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里用时不需要显示，后续调整了用时为完成作业使用的时间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段一暂时没有通知功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评审备注</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少批改的用例，缺少所属模块信息，请根据登录注册、个人信息、班级管理、学生管理、题库管理、试卷管理进行分类</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在组卷功能是有的，参照下UI进行修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>另外，第一轮测试后，需要补充计数的地方的测试用例。比如教师端组卷数、收藏的试题数；学生端已做题的数目、已攻克的试题的数目、已收藏的试题的数目。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4217,6 +4269,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -4263,6 +4316,7 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -4297,7 +4351,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4346,21 +4400,39 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4652,22 +4724,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="25.875" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="51.25" customWidth="1"/>
-    <col min="6" max="6" width="25.375" customWidth="1"/>
+    <col min="5" max="5" width="51.21875" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="41.25" customHeight="1">
+    <row r="1" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4686,12 +4763,14 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="17" t="s">
+        <v>869</v>
+      </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="41.25" customHeight="1">
+    <row r="2" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>341</v>
       </c>
@@ -4708,11 +4787,13 @@
         <v>332</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="G2" s="20" t="s">
+        <v>867</v>
+      </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="41.25" customHeight="1">
+    <row r="3" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
@@ -4726,11 +4807,11 @@
         <v>335</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="G3" s="21"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="41.25" customHeight="1">
+    <row r="4" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
@@ -4744,11 +4825,11 @@
         <v>339</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="41.25" customHeight="1">
+    <row r="5" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
@@ -4762,12 +4843,12 @@
         <v>343</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="21"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="29.25" customHeight="1">
+    <row r="6" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -4784,7 +4865,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="46.5" customHeight="1">
+    <row r="7" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
@@ -4797,8 +4878,11 @@
       <c r="E7" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="46.5" customHeight="1">
+      <c r="G7" s="22" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
@@ -4812,7 +4896,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="40.5">
+    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
@@ -4826,7 +4910,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="48.75" customHeight="1">
+    <row r="10" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
@@ -4840,7 +4924,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="40.5">
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -4857,7 +4941,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="40.5">
+    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
@@ -4871,7 +4955,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="27">
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>17</v>
       </c>
@@ -4885,7 +4969,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="40.5">
+    <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>18</v>
       </c>
@@ -4899,7 +4983,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="40.5">
+    <row r="15" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>19</v>
       </c>
@@ -4913,7 +4997,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="40.5">
+    <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>20</v>
       </c>
@@ -4927,7 +5011,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="27">
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>21</v>
       </c>
@@ -4941,7 +5025,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>22</v>
       </c>
@@ -4955,7 +5039,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -4972,7 +5056,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="121.5">
+    <row r="20" spans="1:5" ht="129.6" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>24</v>
       </c>
@@ -4986,7 +5070,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="67.5">
+    <row r="21" spans="1:5" ht="72" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>25</v>
       </c>
@@ -5000,7 +5084,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="34.5" customHeight="1">
+    <row r="22" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>394</v>
       </c>
@@ -5014,7 +5098,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="27">
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>398</v>
       </c>
@@ -5028,7 +5112,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="54">
+    <row r="24" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>401</v>
       </c>
@@ -5042,7 +5126,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="54">
+    <row r="25" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>405</v>
       </c>
@@ -5056,7 +5140,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>409</v>
       </c>
@@ -5070,7 +5154,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="27">
+    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -5087,7 +5171,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="135">
+    <row r="28" spans="1:5" ht="144" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>416</v>
       </c>
@@ -5101,7 +5185,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="81">
+    <row r="29" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
         <v>419</v>
       </c>
@@ -5115,7 +5199,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="27">
+    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>423</v>
       </c>
@@ -5129,7 +5213,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="54">
+    <row r="31" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
         <v>427</v>
       </c>
@@ -5143,7 +5227,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="54">
+    <row r="32" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>431</v>
       </c>
@@ -5157,7 +5241,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="27">
+    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>435</v>
       </c>
@@ -5171,7 +5255,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>104</v>
       </c>
@@ -5188,7 +5272,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="27">
+    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
         <v>442</v>
       </c>
@@ -5200,7 +5284,7 @@
       </c>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5" ht="54">
+    <row r="36" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
         <v>446</v>
       </c>
@@ -5214,7 +5298,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
         <v>450</v>
       </c>
@@ -5228,7 +5312,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="40.5">
+    <row r="38" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>118</v>
       </c>
@@ -5245,7 +5329,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="27">
+    <row r="39" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
         <v>454</v>
       </c>
@@ -5259,7 +5343,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="54">
+    <row r="40" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
         <v>455</v>
       </c>
@@ -5273,7 +5357,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="54">
+    <row r="41" spans="1:7" ht="72" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
         <v>459</v>
       </c>
@@ -5287,7 +5371,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
         <v>461</v>
       </c>
@@ -5301,7 +5385,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="27">
+    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
         <v>463</v>
       </c>
@@ -5315,7 +5399,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="27">
+    <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>134</v>
       </c>
@@ -5332,7 +5416,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="19.5" customHeight="1">
+    <row r="45" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
         <v>467</v>
       </c>
@@ -5346,7 +5430,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
         <v>471</v>
       </c>
@@ -5360,7 +5444,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
         <v>475</v>
       </c>
@@ -5373,8 +5457,11 @@
       <c r="E47" s="5" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="G47" s="22" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>479</v>
       </c>
@@ -5388,7 +5475,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="81">
+    <row r="49" spans="1:7" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>146</v>
       </c>
@@ -5405,7 +5492,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="27">
+    <row r="50" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
         <v>486</v>
       </c>
@@ -5419,7 +5506,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="27">
+    <row r="51" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
         <v>490</v>
       </c>
@@ -5433,7 +5520,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="31.5" customHeight="1">
+    <row r="52" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
         <v>493</v>
       </c>
@@ -5447,7 +5534,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="27">
+    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B53" s="6" t="s">
         <v>497</v>
       </c>
@@ -5460,8 +5547,11 @@
       <c r="E53" s="5" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="27">
+      <c r="G53" s="22" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
         <v>500</v>
       </c>
@@ -5475,7 +5565,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="40.5">
+    <row r="55" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>504</v>
       </c>
@@ -5489,7 +5579,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="40.5">
+    <row r="56" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>508</v>
       </c>
@@ -5503,7 +5593,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="27">
+    <row r="57" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B57" s="6" t="s">
         <v>512</v>
       </c>
@@ -5517,7 +5607,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="56.25" customHeight="1">
+    <row r="58" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="6" t="s">
         <v>514</v>
       </c>
@@ -5531,7 +5621,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="48.75" customHeight="1">
+    <row r="59" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="6" t="s">
         <v>516</v>
       </c>
@@ -5545,7 +5635,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>178</v>
       </c>
@@ -5562,7 +5652,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="40.5">
+    <row r="61" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>520</v>
       </c>
@@ -5576,7 +5666,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B62" s="6" t="s">
         <v>522</v>
       </c>
@@ -5590,7 +5680,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>187</v>
       </c>
@@ -5607,7 +5697,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
         <v>530</v>
       </c>
@@ -5621,7 +5711,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
         <v>534</v>
       </c>
@@ -5635,7 +5725,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="27">
+    <row r="66" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
         <v>538</v>
       </c>
@@ -5649,7 +5739,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
         <v>539</v>
       </c>
@@ -5663,7 +5753,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="94.5">
+    <row r="68" spans="1:7" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>781</v>
       </c>
@@ -5680,7 +5770,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="27">
+    <row r="69" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
         <v>547</v>
       </c>
@@ -5694,7 +5784,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="27">
+    <row r="70" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
         <v>551</v>
       </c>
@@ -5708,7 +5798,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
         <v>555</v>
       </c>
@@ -5722,7 +5812,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="27">
+    <row r="72" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
         <v>559</v>
       </c>
@@ -5735,8 +5825,11 @@
       <c r="E72" s="5" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="27">
+      <c r="G72" s="22" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="s">
         <v>563</v>
       </c>
@@ -5750,7 +5843,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="40.5">
+    <row r="74" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
         <v>567</v>
       </c>
@@ -5764,7 +5857,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="40.5">
+    <row r="75" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
         <v>571</v>
       </c>
@@ -5778,7 +5871,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
         <v>575</v>
       </c>
@@ -5792,7 +5885,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="40.5">
+    <row r="77" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B77" s="6" t="s">
         <v>578</v>
       </c>
@@ -5806,7 +5899,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>787</v>
       </c>
@@ -5823,7 +5916,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="40.5">
+    <row r="79" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
         <v>586</v>
       </c>
@@ -5837,7 +5930,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
         <v>591</v>
       </c>
@@ -5851,7 +5944,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="40.5">
+    <row r="81" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B81" s="6" t="s">
         <v>593</v>
       </c>
@@ -5865,7 +5958,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="27">
+    <row r="82" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>794</v>
       </c>
@@ -5882,7 +5975,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="94.5">
+    <row r="83" spans="1:7" ht="100.8" x14ac:dyDescent="0.25">
       <c r="B83" s="6" t="s">
         <v>601</v>
       </c>
@@ -5896,7 +5989,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="27">
+    <row r="84" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B84" s="6" t="s">
         <v>605</v>
       </c>
@@ -5910,7 +6003,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B85" s="6" t="s">
         <v>609</v>
       </c>
@@ -5924,7 +6017,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B86" s="6" t="s">
         <v>613</v>
       </c>
@@ -5938,7 +6031,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>809</v>
       </c>
@@ -5955,7 +6048,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B88" s="6" t="s">
         <v>619</v>
       </c>
@@ -5969,7 +6062,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B89" s="6" t="s">
         <v>623</v>
       </c>
@@ -5983,7 +6076,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="94.5">
+    <row r="90" spans="1:7" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>814</v>
       </c>
@@ -5999,8 +6092,11 @@
       <c r="E90" s="5" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="27">
+      <c r="G90" s="22" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B91" s="6" t="s">
         <v>631</v>
       </c>
@@ -6014,7 +6110,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="27">
+    <row r="92" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B92" s="6" t="s">
         <v>635</v>
       </c>
@@ -6028,7 +6124,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="54">
+    <row r="93" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B93" s="6" t="s">
         <v>638</v>
       </c>
@@ -6042,7 +6138,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B94" s="6" t="s">
         <v>642</v>
       </c>
@@ -6056,7 +6152,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B95" s="6" t="s">
         <v>646</v>
       </c>
@@ -6070,7 +6166,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B96" s="6" t="s">
         <v>650</v>
       </c>
@@ -6084,7 +6180,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="27">
+    <row r="97" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B97" s="6" t="s">
         <v>654</v>
       </c>
@@ -6098,7 +6194,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="27">
+    <row r="98" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B98" s="6" t="s">
         <v>658</v>
       </c>
@@ -6112,7 +6208,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B99" s="6" t="s">
         <v>660</v>
       </c>
@@ -6126,7 +6222,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>824</v>
       </c>
@@ -6143,7 +6239,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B101" s="6" t="s">
         <v>666</v>
       </c>
@@ -6157,7 +6253,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B102" s="6" t="s">
         <v>669</v>
       </c>
@@ -6171,7 +6267,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B103" s="6" t="s">
         <v>672</v>
       </c>
@@ -6185,7 +6281,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="27">
+    <row r="104" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B104" s="6" t="s">
         <v>675</v>
       </c>
@@ -6199,7 +6295,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="27">
+    <row r="105" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B105" s="6" t="s">
         <v>678</v>
       </c>
@@ -6213,7 +6309,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B106" s="6" t="s">
         <v>681</v>
       </c>
@@ -6227,7 +6323,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="27">
+    <row r="107" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B107" s="6" t="s">
         <v>685</v>
       </c>
@@ -6241,7 +6337,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B108" s="6" t="s">
         <v>689</v>
       </c>
@@ -6255,7 +6351,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B109" s="6" t="s">
         <v>693</v>
       </c>
@@ -6269,7 +6365,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="27">
+    <row r="110" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B110" s="6" t="s">
         <v>697</v>
       </c>
@@ -6283,7 +6379,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B111" s="6" t="s">
         <v>699</v>
       </c>
@@ -6297,7 +6393,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>178</v>
       </c>
@@ -6314,7 +6410,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B113" s="6" t="s">
         <v>708</v>
       </c>
@@ -6328,7 +6424,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>188</v>
       </c>
@@ -6345,7 +6441,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B115" s="6" t="s">
         <v>718</v>
       </c>
@@ -6359,7 +6455,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B116" s="6" t="s">
         <v>719</v>
       </c>
@@ -6373,7 +6469,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="37.5" customHeight="1">
+    <row r="117" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="6" t="s">
         <v>720</v>
       </c>
@@ -6387,7 +6483,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="54">
+    <row r="118" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B118" s="6" t="s">
         <v>721</v>
       </c>
@@ -6401,7 +6497,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>202</v>
       </c>
@@ -6418,7 +6514,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B120" s="6" t="s">
         <v>723</v>
       </c>
@@ -6432,7 +6528,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B121" s="6" t="s">
         <v>724</v>
       </c>
@@ -6446,7 +6542,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B122" s="6" t="s">
         <v>725</v>
       </c>
@@ -6460,7 +6556,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B123" s="6" t="s">
         <v>726</v>
       </c>
@@ -6474,7 +6570,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B124" s="6" t="s">
         <v>727</v>
       </c>
@@ -6488,7 +6584,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="27">
+    <row r="125" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B125" s="6" t="s">
         <v>728</v>
       </c>
@@ -6502,7 +6598,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="27">
+    <row r="126" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B126" s="6" t="s">
         <v>729</v>
       </c>
@@ -6516,7 +6612,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B127" s="6" t="s">
         <v>730</v>
       </c>
@@ -6530,7 +6626,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>222</v>
       </c>
@@ -6547,7 +6643,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B129" s="6" t="s">
         <v>732</v>
       </c>
@@ -6561,7 +6657,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="27">
+    <row r="130" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B130" s="6" t="s">
         <v>733</v>
       </c>
@@ -6575,7 +6671,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B131" s="6" t="s">
         <v>734</v>
       </c>
@@ -6589,7 +6685,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>234</v>
       </c>
@@ -6606,7 +6702,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B133" s="6" t="s">
         <v>736</v>
       </c>
@@ -6620,7 +6716,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B134" s="6" t="s">
         <v>737</v>
       </c>
@@ -6634,7 +6730,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B135" s="6" t="s">
         <v>738</v>
       </c>
@@ -6648,7 +6744,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>249</v>
       </c>
@@ -6665,7 +6761,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B137" s="6" t="s">
         <v>740</v>
       </c>
@@ -6679,7 +6775,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="54">
+    <row r="138" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B138" s="6" t="s">
         <v>741</v>
       </c>
@@ -6693,7 +6789,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B139" s="6" t="s">
         <v>742</v>
       </c>
@@ -6707,7 +6803,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B140" s="6" t="s">
         <v>743</v>
       </c>
@@ -6721,7 +6817,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B141" s="6" t="s">
         <v>744</v>
       </c>
@@ -6735,7 +6831,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="27">
+    <row r="142" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B142" s="6" t="s">
         <v>745</v>
       </c>
@@ -6749,7 +6845,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B143" s="6" t="s">
         <v>746</v>
       </c>
@@ -6763,7 +6859,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B144" s="6" t="s">
         <v>747</v>
       </c>
@@ -6777,12 +6873,12 @@
         <v>258</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B145" s="6" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="27">
+    <row r="146" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>259</v>
       </c>
@@ -6799,7 +6895,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B147" s="6" t="s">
         <v>750</v>
       </c>
@@ -6813,7 +6909,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="27">
+    <row r="148" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B148" s="6" t="s">
         <v>751</v>
       </c>
@@ -6827,7 +6923,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B149" s="6" t="s">
         <v>752</v>
       </c>
@@ -6841,7 +6937,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B150" s="6" t="s">
         <v>753</v>
       </c>
@@ -6855,7 +6951,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B151" s="6" t="s">
         <v>754</v>
       </c>
@@ -6869,7 +6965,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
         <v>268</v>
       </c>
@@ -6886,7 +6982,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B153" s="6" t="s">
         <v>756</v>
       </c>
@@ -6900,7 +6996,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="40.5">
+    <row r="154" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B154" s="6" t="s">
         <v>757</v>
       </c>
@@ -6914,7 +7010,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B155" s="6" t="s">
         <v>758</v>
       </c>
@@ -6925,7 +7021,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="27">
+    <row r="156" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
         <v>278</v>
       </c>
@@ -6942,7 +7038,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="27">
+    <row r="157" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B157" s="6" t="s">
         <v>760</v>
       </c>
@@ -6953,7 +7049,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="54">
+    <row r="158" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B158" s="6" t="s">
         <v>761</v>
       </c>
@@ -6967,7 +7063,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B159" s="6" t="s">
         <v>762</v>
       </c>
@@ -6981,7 +7077,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="27">
+    <row r="160" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A160" s="11" t="s">
         <v>261</v>
       </c>
@@ -6998,7 +7094,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B161" s="6" t="s">
         <v>764</v>
       </c>
@@ -7012,7 +7108,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B162" s="6" t="s">
         <v>765</v>
       </c>
@@ -7026,7 +7122,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B163" s="6" t="s">
         <v>766</v>
       </c>
@@ -7040,7 +7136,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="27">
+    <row r="164" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B164" s="6" t="s">
         <v>767</v>
       </c>
@@ -7054,7 +7150,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B165" s="6" t="s">
         <v>768</v>
       </c>
@@ -7068,7 +7164,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B166" s="6" t="s">
         <v>846</v>
       </c>
@@ -7082,7 +7178,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
         <v>284</v>
       </c>
@@ -7099,7 +7195,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="27">
+    <row r="168" spans="1:5" ht="28.2" x14ac:dyDescent="0.25">
       <c r="B168" s="6" t="s">
         <v>848</v>
       </c>
@@ -7113,7 +7209,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="27">
+    <row r="169" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B169" s="6" t="s">
         <v>849</v>
       </c>
@@ -7127,7 +7223,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="33" customHeight="1">
+    <row r="170" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
         <v>287</v>
       </c>
@@ -7144,7 +7240,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B171" s="6" t="s">
         <v>851</v>
       </c>
@@ -7158,7 +7254,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="27">
+    <row r="172" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B172" s="6" t="s">
         <v>852</v>
       </c>
@@ -7172,7 +7268,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B173" s="6" t="s">
         <v>853</v>
       </c>
@@ -7186,7 +7282,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="29.25" customHeight="1">
+    <row r="174" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="6" t="s">
         <v>854</v>
       </c>
@@ -7200,7 +7296,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="108">
+    <row r="175" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
       <c r="B175" s="6" t="s">
         <v>855</v>
       </c>
@@ -7214,7 +7310,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
         <v>309</v>
       </c>
@@ -7231,7 +7327,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="148.5">
+    <row r="177" spans="1:7" ht="158.4" x14ac:dyDescent="0.25">
       <c r="B177" s="6" t="s">
         <v>857</v>
       </c>
@@ -7245,7 +7341,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B178" s="6" t="s">
         <v>858</v>
       </c>
@@ -7259,7 +7355,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B179" s="6" t="s">
         <v>859</v>
       </c>
@@ -7273,7 +7369,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="69" customHeight="1">
+    <row r="180" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="6" t="s">
         <v>860</v>
       </c>
@@ -7287,7 +7383,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="67.5">
+    <row r="181" spans="1:7" ht="72" x14ac:dyDescent="0.25">
       <c r="B181" s="6" t="s">
         <v>861</v>
       </c>
@@ -7301,7 +7397,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="27">
+    <row r="182" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B182" s="6" t="s">
         <v>862</v>
       </c>
@@ -7315,7 +7411,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="11" t="s">
         <v>270</v>
       </c>
@@ -7331,8 +7427,11 @@
       <c r="E183" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="184" spans="1:5">
+      <c r="G183" s="21" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B184" s="6" t="s">
         <v>864</v>
       </c>
@@ -7345,8 +7444,9 @@
       <c r="E184" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" ht="67.5">
+      <c r="G184" s="21"/>
+    </row>
+    <row r="185" spans="1:7" ht="86.4" x14ac:dyDescent="0.25">
       <c r="B185" s="6" t="s">
         <v>865</v>
       </c>
@@ -7359,8 +7459,9 @@
       <c r="E185" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="186" spans="1:5">
+      <c r="G185" s="21"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B186" s="6" t="s">
         <v>866</v>
       </c>
@@ -7373,8 +7474,13 @@
       <c r="E186" s="11" t="s">
         <v>329</v>
       </c>
+      <c r="G186" s="21"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="G183:G186"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7382,23 +7488,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.125" customWidth="1"/>
-    <col min="4" max="4" width="33.625" customWidth="1"/>
-    <col min="5" max="5" width="73.5" customWidth="1"/>
-    <col min="6" max="6" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" customWidth="1"/>
+    <col min="5" max="5" width="73.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7417,12 +7527,14 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="16" t="s">
+        <v>874</v>
+      </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="86.4" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="7" t="s">
         <v>344</v>
@@ -7430,12 +7542,14 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="G2" s="17" t="s">
+        <v>875</v>
+      </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="40.5">
+    <row r="3" spans="1:10" ht="115.2" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
@@ -7449,12 +7563,14 @@
         <v>332</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="G3" s="17" t="s">
+        <v>877</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="27">
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
@@ -7468,12 +7584,12 @@
         <v>335</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="G4" s="16"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="27">
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
@@ -7487,12 +7603,12 @@
         <v>339</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="16"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="40.5">
+    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
@@ -7506,12 +7622,12 @@
         <v>347</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
@@ -7525,12 +7641,12 @@
         <v>350</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
@@ -7544,12 +7660,12 @@
         <v>353</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
@@ -7559,12 +7675,12 @@
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="54">
+    <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
@@ -7578,12 +7694,12 @@
         <v>357</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="40.5">
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
@@ -7597,7 +7713,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="40.5">
+    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>15</v>
       </c>
@@ -7611,7 +7727,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>16</v>
       </c>
@@ -7625,7 +7741,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>17</v>
       </c>
@@ -7639,7 +7755,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>18</v>
       </c>
@@ -7653,7 +7769,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>19</v>
       </c>
@@ -7667,7 +7783,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>20</v>
       </c>
@@ -7681,7 +7797,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="108">
+    <row r="18" spans="2:5" ht="115.2" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>21</v>
       </c>
@@ -7695,7 +7811,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="94.5">
+    <row r="19" spans="2:5" ht="100.8" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>22</v>
       </c>
@@ -7709,7 +7825,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="94.5">
+    <row r="20" spans="2:5" ht="100.8" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>23</v>
       </c>
@@ -7723,7 +7839,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="108">
+    <row r="21" spans="2:5" ht="115.2" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>24</v>
       </c>
@@ -7737,7 +7853,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="40.5">
+    <row r="22" spans="2:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>25</v>
       </c>
@@ -7751,7 +7867,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="27">
+    <row r="23" spans="2:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>394</v>
       </c>
@@ -7765,7 +7881,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="27">
+    <row r="24" spans="2:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>398</v>
       </c>
@@ -7779,7 +7895,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="27">
+    <row r="25" spans="2:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>401</v>
       </c>
@@ -7793,7 +7909,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="42">
+    <row r="26" spans="2:5" ht="28.2" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>405</v>
       </c>
@@ -7807,7 +7923,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="42">
+    <row r="27" spans="2:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>409</v>
       </c>
@@ -7821,7 +7937,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="42">
+    <row r="28" spans="2:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>412</v>
       </c>
@@ -7835,7 +7951,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="42">
+    <row r="29" spans="2:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
         <v>416</v>
       </c>
@@ -7849,7 +7965,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="2:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>419</v>
       </c>
@@ -7863,7 +7979,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="27">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
         <v>423</v>
       </c>
@@ -7877,7 +7993,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="32" spans="2:5">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>427</v>
       </c>
@@ -7891,7 +8007,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="54">
+    <row r="33" spans="2:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>431</v>
       </c>
@@ -7905,7 +8021,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="108">
+    <row r="34" spans="2:5" ht="115.2" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>435</v>
       </c>
@@ -7919,7 +8035,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="94.5">
+    <row r="35" spans="2:5" ht="100.8" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
         <v>438</v>
       </c>
@@ -7933,7 +8049,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="94.5">
+    <row r="36" spans="2:5" ht="100.8" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
         <v>442</v>
       </c>
@@ -7947,7 +8063,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="108">
+    <row r="37" spans="2:5" ht="115.2" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
         <v>446</v>
       </c>
@@ -7961,7 +8077,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="40.5">
+    <row r="38" spans="2:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
         <v>450</v>
       </c>
@@ -7975,7 +8091,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="27">
+    <row r="39" spans="2:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
         <v>452</v>
       </c>
@@ -7989,7 +8105,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="27">
+    <row r="40" spans="2:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
         <v>454</v>
       </c>
@@ -8003,7 +8119,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="40.5">
+    <row r="41" spans="2:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
         <v>455</v>
       </c>
@@ -8017,7 +8133,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="42">
+    <row r="42" spans="2:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
         <v>459</v>
       </c>
@@ -8031,7 +8147,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="43" spans="2:5" ht="42">
+    <row r="43" spans="2:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
         <v>461</v>
       </c>
@@ -8045,7 +8161,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="42">
+    <row r="44" spans="2:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>463</v>
       </c>
@@ -8059,7 +8175,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="42">
+    <row r="45" spans="2:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
         <v>465</v>
       </c>
@@ -8073,7 +8189,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="27">
+    <row r="46" spans="2:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
         <v>467</v>
       </c>
@@ -8087,7 +8203,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="47" spans="2:5" ht="67.5">
+    <row r="47" spans="2:5" ht="72" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
         <v>471</v>
       </c>
@@ -8101,7 +8217,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="48" spans="2:5" ht="27">
+    <row r="48" spans="2:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>475</v>
       </c>
@@ -8115,7 +8231,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="49" spans="2:5">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
         <v>479</v>
       </c>
@@ -8127,7 +8243,7 @@
       </c>
       <c r="E49" s="10"/>
     </row>
-    <row r="50" spans="2:5" ht="27">
+    <row r="50" spans="2:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
         <v>482</v>
       </c>
@@ -8141,7 +8257,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="24.75">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
         <v>486</v>
       </c>
@@ -8155,7 +8271,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="52" spans="2:5" ht="24.75">
+    <row r="52" spans="2:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
         <v>490</v>
       </c>
@@ -8169,7 +8285,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="53" spans="2:5" ht="27">
+    <row r="53" spans="2:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B53" s="6" t="s">
         <v>493</v>
       </c>
@@ -8183,7 +8299,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="54" spans="2:5" ht="94.5">
+    <row r="54" spans="2:5" ht="100.8" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
         <v>497</v>
       </c>
@@ -8197,7 +8313,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="55" spans="2:5" ht="27">
+    <row r="55" spans="2:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>500</v>
       </c>
@@ -8211,7 +8327,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="56" spans="2:5" ht="27">
+    <row r="56" spans="2:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>504</v>
       </c>
@@ -8225,7 +8341,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="40.5">
+    <row r="57" spans="2:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B57" s="6" t="s">
         <v>508</v>
       </c>
@@ -8239,7 +8355,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="42">
+    <row r="58" spans="2:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B58" s="6" t="s">
         <v>512</v>
       </c>
@@ -8253,7 +8369,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="42">
+    <row r="59" spans="2:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B59" s="6" t="s">
         <v>514</v>
       </c>
@@ -8267,7 +8383,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="60" spans="2:5" ht="42">
+    <row r="60" spans="2:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
         <v>516</v>
       </c>
@@ -8281,7 +8397,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="61" spans="2:5" ht="42">
+    <row r="61" spans="2:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>518</v>
       </c>
@@ -8295,7 +8411,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="62" spans="2:5" ht="27">
+    <row r="62" spans="2:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B62" s="6" t="s">
         <v>520</v>
       </c>
@@ -8309,7 +8425,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="63" spans="2:5" ht="27">
+    <row r="63" spans="2:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B63" s="6" t="s">
         <v>522</v>
       </c>
@@ -8323,7 +8439,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="64" spans="2:5">
+    <row r="64" spans="2:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
         <v>526</v>
       </c>
@@ -8337,7 +8453,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="65" spans="2:7" ht="27">
+    <row r="65" spans="2:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
         <v>530</v>
       </c>
@@ -8351,7 +8467,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="66" spans="2:7" ht="27">
+    <row r="66" spans="2:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
         <v>534</v>
       </c>
@@ -8365,7 +8481,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="67" spans="2:7" ht="27">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
         <v>538</v>
       </c>
@@ -8379,7 +8495,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="68" spans="2:7">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
         <v>539</v>
       </c>
@@ -8393,7 +8509,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="69" spans="2:7">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
         <v>543</v>
       </c>
@@ -8407,7 +8523,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="70" spans="2:7">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
         <v>547</v>
       </c>
@@ -8421,7 +8537,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="71" spans="2:7">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
         <v>551</v>
       </c>
@@ -8435,7 +8551,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="72" spans="2:7">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
         <v>555</v>
       </c>
@@ -8449,7 +8565,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="73" spans="2:7">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="s">
         <v>559</v>
       </c>
@@ -8463,7 +8579,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="74" spans="2:7">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
         <v>563</v>
       </c>
@@ -8477,7 +8593,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="75" spans="2:7" ht="40.5">
+    <row r="75" spans="2:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
         <v>567</v>
       </c>
@@ -8491,7 +8607,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="76" spans="2:7">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
         <v>571</v>
       </c>
@@ -8505,7 +8621,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="77" spans="2:7">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="6" t="s">
         <v>575</v>
       </c>
@@ -8519,7 +8635,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="78" spans="2:7" ht="27">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
         <v>578</v>
       </c>
@@ -8533,7 +8649,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="79" spans="2:7" ht="27">
+    <row r="79" spans="2:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
         <v>582</v>
       </c>
@@ -8546,11 +8662,11 @@
       <c r="E79" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="G79" s="16" t="s">
+      <c r="G79" s="19" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="80" spans="2:7">
+    <row r="80" spans="2:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
         <v>586</v>
       </c>
@@ -8564,7 +8680,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="81" spans="2:7" ht="54">
+    <row r="81" spans="2:7" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B81" s="6" t="s">
         <v>591</v>
       </c>
@@ -8578,7 +8694,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="82" spans="2:7" ht="81">
+    <row r="82" spans="2:7" ht="86.4" x14ac:dyDescent="0.25">
       <c r="B82" s="6" t="s">
         <v>593</v>
       </c>
@@ -8592,7 +8708,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="83" spans="2:7" ht="67.5">
+    <row r="83" spans="2:7" ht="72" x14ac:dyDescent="0.25">
       <c r="B83" s="6" t="s">
         <v>597</v>
       </c>
@@ -8606,7 +8722,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="84" spans="2:7" ht="135">
+    <row r="84" spans="2:7" ht="86.4" x14ac:dyDescent="0.25">
       <c r="B84" s="6" t="s">
         <v>601</v>
       </c>
@@ -8620,7 +8736,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="85" spans="2:7" ht="81">
+    <row r="85" spans="2:7" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B85" s="6" t="s">
         <v>605</v>
       </c>
@@ -8634,7 +8750,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="86" spans="2:7" ht="40.5">
+    <row r="86" spans="2:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B86" s="6" t="s">
         <v>609</v>
       </c>
@@ -8648,7 +8764,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="87" spans="2:7" ht="256.5">
+    <row r="87" spans="2:7" ht="273.60000000000002" x14ac:dyDescent="0.25">
       <c r="B87" s="6" t="s">
         <v>613</v>
       </c>
@@ -8662,7 +8778,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="88" spans="2:7" ht="27">
+    <row r="88" spans="2:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B88" s="6" t="s">
         <v>616</v>
       </c>
@@ -8676,7 +8792,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="89" spans="2:7" ht="40.5">
+    <row r="89" spans="2:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B89" s="6" t="s">
         <v>619</v>
       </c>
@@ -8689,11 +8805,11 @@
       <c r="E89" s="10" t="s">
         <v>626</v>
       </c>
-      <c r="G89" s="17" t="s">
+      <c r="G89" s="19" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="90" spans="2:7" ht="54">
+    <row r="90" spans="2:7" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B90" s="6" t="s">
         <v>623</v>
       </c>
@@ -8707,7 +8823,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="91" spans="2:7" ht="27">
+    <row r="91" spans="2:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B91" s="6" t="s">
         <v>628</v>
       </c>
@@ -8721,7 +8837,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="92" spans="2:7" ht="27">
+    <row r="92" spans="2:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B92" s="6" t="s">
         <v>631</v>
       </c>
@@ -8735,7 +8851,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="93" spans="2:7" ht="54">
+    <row r="93" spans="2:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B93" s="6" t="s">
         <v>635</v>
       </c>
@@ -8749,7 +8865,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="94" spans="2:7" ht="40.5">
+    <row r="94" spans="2:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B94" s="6" t="s">
         <v>638</v>
       </c>
@@ -8763,7 +8879,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="95" spans="2:7" ht="40.5">
+    <row r="95" spans="2:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B95" s="6" t="s">
         <v>642</v>
       </c>
@@ -8777,7 +8893,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="96" spans="2:7" ht="54">
+    <row r="96" spans="2:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B96" s="6" t="s">
         <v>646</v>
       </c>
@@ -8791,7 +8907,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="97" spans="2:7">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="6" t="s">
         <v>650</v>
       </c>
@@ -8805,7 +8921,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="98" spans="2:7">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" s="6" t="s">
         <v>654</v>
       </c>
@@ -8813,7 +8929,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="99" spans="2:7" ht="94.5">
+    <row r="99" spans="2:7" ht="100.8" x14ac:dyDescent="0.25">
       <c r="B99" s="6" t="s">
         <v>658</v>
       </c>
@@ -8827,7 +8943,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="100" spans="2:7" ht="27">
+    <row r="100" spans="2:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B100" s="6" t="s">
         <v>660</v>
       </c>
@@ -8841,7 +8957,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="101" spans="2:7" ht="27">
+    <row r="101" spans="2:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B101" s="6" t="s">
         <v>663</v>
       </c>
@@ -8855,7 +8971,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="102" spans="2:7" ht="27">
+    <row r="102" spans="2:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B102" s="6" t="s">
         <v>666</v>
       </c>
@@ -8869,7 +8985,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="103" spans="2:7" ht="54">
+    <row r="103" spans="2:7" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B103" s="6" t="s">
         <v>669</v>
       </c>
@@ -8883,7 +8999,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="104" spans="2:7" ht="54">
+    <row r="104" spans="2:7" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B104" s="6" t="s">
         <v>672</v>
       </c>
@@ -8897,7 +9013,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="105" spans="2:7" ht="94.5">
+    <row r="105" spans="2:7" ht="100.8" x14ac:dyDescent="0.25">
       <c r="B105" s="6" t="s">
         <v>675</v>
       </c>
@@ -8911,7 +9027,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="106" spans="2:7" ht="94.5">
+    <row r="106" spans="2:7" ht="100.8" x14ac:dyDescent="0.25">
       <c r="B106" s="6" t="s">
         <v>678</v>
       </c>
@@ -8925,7 +9041,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="107" spans="2:7" ht="94.5">
+    <row r="107" spans="2:7" ht="86.4" x14ac:dyDescent="0.25">
       <c r="B107" s="6" t="s">
         <v>681</v>
       </c>
@@ -8939,7 +9055,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="108" spans="2:7" ht="94.5">
+    <row r="108" spans="2:7" ht="86.4" x14ac:dyDescent="0.25">
       <c r="B108" s="6" t="s">
         <v>685</v>
       </c>
@@ -8953,7 +9069,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="109" spans="2:7" ht="135">
+    <row r="109" spans="2:7" ht="115.2" x14ac:dyDescent="0.25">
       <c r="B109" s="6" t="s">
         <v>689</v>
       </c>
@@ -8967,7 +9083,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="110" spans="2:7">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B110" s="6" t="s">
         <v>693</v>
       </c>
@@ -8975,7 +9091,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="111" spans="2:7" ht="81">
+    <row r="111" spans="2:7" ht="86.4" x14ac:dyDescent="0.25">
       <c r="B111" s="6" t="s">
         <v>697</v>
       </c>
@@ -8988,11 +9104,11 @@
       <c r="E111" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="G111" s="17" t="s">
+      <c r="G111" s="19" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="112" spans="2:7" ht="27">
+    <row r="112" spans="2:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B112" s="6" t="s">
         <v>699</v>
       </c>
@@ -9007,7 +9123,7 @@
       </c>
       <c r="F112" s="10"/>
     </row>
-    <row r="113" spans="2:6" ht="148.5">
+    <row r="113" spans="2:6" ht="115.2" x14ac:dyDescent="0.25">
       <c r="B113" s="6" t="s">
         <v>704</v>
       </c>
@@ -9022,7 +9138,7 @@
       </c>
       <c r="F113" s="10"/>
     </row>
-    <row r="114" spans="2:6" ht="40.5">
+    <row r="114" spans="2:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B114" s="6" t="s">
         <v>708</v>
       </c>
@@ -9037,7 +9153,7 @@
       </c>
       <c r="F114" s="10"/>
     </row>
-    <row r="115" spans="2:6" ht="121.5">
+    <row r="115" spans="2:6" ht="86.4" x14ac:dyDescent="0.25">
       <c r="B115" s="6" t="s">
         <v>711</v>
       </c>
@@ -9051,7 +9167,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="116" spans="2:6" ht="94.5">
+    <row r="116" spans="2:6" ht="100.8" x14ac:dyDescent="0.25">
       <c r="B116" s="6" t="s">
         <v>718</v>
       </c>
